--- a/import/prep/excel_original_receipt/64-10ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พค64 (1-31กค64).xlsx
+++ b/import/prep/excel_original_receipt/64-10ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ พค64 (1-31กค64).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/Excel(billing)/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B6AD6069-25EE-3A43-A1F5-83B6694892CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A405A8D-ACB9-1E4E-91B0-EECE70C3FD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17480" yWindow="1540" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -12016,30 +12016,6 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12047,6 +12023,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12064,10 +12046,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12355,7 +12355,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T801"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I811" sqref="I811"/>
     </sheetView>
   </sheetViews>
@@ -65494,8 +65494,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA263"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P221" sqref="P221"/>
+    <sheetView topLeftCell="C233" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -65525,24 +65525,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="195" t="s">
         <v>3039</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="144"/>
       <c r="S1" s="144"/>
@@ -65584,7 +65584,7 @@
       <c r="C3" s="176" t="s">
         <v>2975</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="196" t="s">
         <v>2976</v>
       </c>
       <c r="E3" s="176" t="s">
@@ -65599,43 +65599,43 @@
       <c r="H3" s="179" t="s">
         <v>3038</v>
       </c>
-      <c r="I3" s="187" t="s">
+      <c r="I3" s="197" t="s">
         <v>2979</v>
       </c>
-      <c r="J3" s="189" t="s">
+      <c r="J3" s="188" t="s">
         <v>2980</v>
       </c>
-      <c r="K3" s="191" t="s">
+      <c r="K3" s="199" t="s">
         <v>2981</v>
       </c>
-      <c r="L3" s="189" t="s">
+      <c r="L3" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="189" t="s">
+      <c r="M3" s="188" t="s">
         <v>2982</v>
       </c>
-      <c r="N3" s="189" t="s">
+      <c r="N3" s="188" t="s">
         <v>2983</v>
       </c>
       <c r="O3" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="196" t="s">
+      <c r="P3" s="190" t="s">
         <v>2984</v>
       </c>
-      <c r="Q3" s="198" t="s">
+      <c r="Q3" s="192" t="s">
         <v>709</v>
       </c>
-      <c r="R3" s="193">
+      <c r="R3" s="185">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="194" t="s">
+      <c r="S3" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="200" t="s">
+      <c r="T3" s="194" t="s">
         <v>2984</v>
       </c>
-      <c r="U3" s="195" t="s">
+      <c r="U3" s="187" t="s">
         <v>2985</v>
       </c>
     </row>
@@ -65643,28 +65643,28 @@
       <c r="A4" s="176"/>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
-      <c r="D4" s="186"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="176"/>
       <c r="F4" s="180"/>
       <c r="G4" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="180"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
       <c r="O4" s="143" t="s">
         <v>398</v>
       </c>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="195"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="187"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="23">
@@ -80443,15 +80443,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -80463,6 +80454,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -80473,8 +80473,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -80505,24 +80505,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="195" t="s">
         <v>3040</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
       <c r="Q1" s="39"/>
       <c r="R1" s="40"/>
       <c r="S1" s="40"/>
@@ -80566,7 +80566,7 @@
       <c r="C3" s="176" t="s">
         <v>2975</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="196" t="s">
         <v>2976</v>
       </c>
       <c r="E3" s="176" t="s">
@@ -80581,43 +80581,43 @@
       <c r="H3" s="179" t="s">
         <v>2990</v>
       </c>
-      <c r="I3" s="187" t="s">
+      <c r="I3" s="197" t="s">
         <v>2979</v>
       </c>
-      <c r="J3" s="189" t="s">
+      <c r="J3" s="188" t="s">
         <v>2980</v>
       </c>
-      <c r="K3" s="191" t="s">
+      <c r="K3" s="199" t="s">
         <v>2981</v>
       </c>
-      <c r="L3" s="189" t="s">
+      <c r="L3" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="189" t="s">
+      <c r="M3" s="188" t="s">
         <v>2982</v>
       </c>
-      <c r="N3" s="189" t="s">
+      <c r="N3" s="188" t="s">
         <v>2983</v>
       </c>
       <c r="O3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="196" t="s">
+      <c r="P3" s="190" t="s">
         <v>2984</v>
       </c>
-      <c r="Q3" s="201" t="s">
+      <c r="Q3" s="202" t="s">
         <v>709</v>
       </c>
-      <c r="R3" s="193">
+      <c r="R3" s="185">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="194" t="s">
+      <c r="S3" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="200" t="s">
+      <c r="T3" s="194" t="s">
         <v>2984</v>
       </c>
-      <c r="U3" s="195" t="s">
+      <c r="U3" s="187" t="s">
         <v>2985</v>
       </c>
       <c r="Y3" s="10"/>
@@ -80626,28 +80626,28 @@
       <c r="A4" s="176"/>
       <c r="B4" s="176"/>
       <c r="C4" s="176"/>
-      <c r="D4" s="186"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="176"/>
       <c r="F4" s="180"/>
       <c r="G4" s="47" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="180"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
       <c r="O4" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="195"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="187"/>
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -85277,6 +85277,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -85288,15 +85297,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
